--- a/dgl_version/output/gnn-rag运行结果.xlsx
+++ b/dgl_version/output/gnn-rag运行结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gnn\dgl_version\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D7A5CA-163D-4A61-8719-E6C62EA015E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F920848A-76AB-462B-97BE-789D32A5E261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="313">
   <si>
     <t>[341]</t>
   </si>
@@ -871,6 +871,99 @@
   </si>
   <si>
     <t>[611, 612, 611, 614, 615]</t>
+  </si>
+  <si>
+    <t>[669, 667, 665, 668, 666]</t>
+  </si>
+  <si>
+    <t>[670, 673, 671, 672]</t>
+  </si>
+  <si>
+    <t>[675, 674, 676]</t>
+  </si>
+  <si>
+    <t>[678, 677, 679]</t>
+  </si>
+  <si>
+    <t>[665, 669, 667, 666, 668]</t>
+  </si>
+  <si>
+    <t>[672, 670, 673, 671]</t>
+  </si>
+  <si>
+    <t>[676, 674, 675]</t>
+  </si>
+  <si>
+    <t>[678, 679, 677]</t>
+  </si>
+  <si>
+    <t>[665, 680, 666, 681]</t>
+  </si>
+  <si>
+    <t>[665, 682, 680, 681, 666]</t>
+  </si>
+  <si>
+    <t>[672, 673, 683, 671]</t>
+  </si>
+  <si>
+    <t>[680, 666, 681, 665]</t>
+  </si>
+  <si>
+    <t>[666, 682, 665, 681, 680]</t>
+  </si>
+  <si>
+    <t>[671, 672, 673, 683]</t>
+  </si>
+  <si>
+    <t>[674, 675, 676]</t>
+  </si>
+  <si>
+    <t>[679, 678, 677]</t>
+  </si>
+  <si>
+    <t>[680, 685, 684]</t>
+  </si>
+  <si>
+    <t>[687, 686, 688]</t>
+  </si>
+  <si>
+    <t>[689, 691, 690]</t>
+  </si>
+  <si>
+    <t>[692, 685, 674, 684]</t>
+  </si>
+  <si>
+    <t>[693, 695, 694]</t>
+  </si>
+  <si>
+    <t>[696, 698, 697]</t>
+  </si>
+  <si>
+    <t>[700, 699, 680]</t>
+  </si>
+  <si>
+    <t>[701, 702, 703]</t>
+  </si>
+  <si>
+    <t>[706, 704, 705]</t>
+  </si>
+  <si>
+    <t>[699, 708, 707]</t>
+  </si>
+  <si>
+    <t>[693, 694]</t>
+  </si>
+  <si>
+    <t>[710, 685, 680, 676, 709]</t>
+  </si>
+  <si>
+    <t>[712, 713, 711]</t>
+  </si>
+  <si>
+    <t>[714, 674, 715]</t>
+  </si>
+  <si>
+    <t>[717, 679, 693, 716, 694]</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C367"/>
+  <dimension ref="A1:C484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="F359" sqref="F359"/>
+    <sheetView tabSelected="1" topLeftCell="A345" workbookViewId="0">
+      <selection activeCell="G375" sqref="G375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5262,6 +5355,1293 @@
         <v>276</v>
       </c>
     </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A368">
+        <v>341</v>
+      </c>
+      <c r="B368">
+        <v>665</v>
+      </c>
+      <c r="C368" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A369">
+        <v>341</v>
+      </c>
+      <c r="B369">
+        <v>665</v>
+      </c>
+      <c r="C369" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A370">
+        <v>341</v>
+      </c>
+      <c r="B370">
+        <v>665</v>
+      </c>
+      <c r="C370" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A371">
+        <v>341</v>
+      </c>
+      <c r="B371">
+        <v>665</v>
+      </c>
+      <c r="C371" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A372">
+        <v>341</v>
+      </c>
+      <c r="B372">
+        <v>665</v>
+      </c>
+      <c r="C372" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A373">
+        <v>342</v>
+      </c>
+      <c r="B373">
+        <v>670</v>
+      </c>
+      <c r="C373" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A374">
+        <v>342</v>
+      </c>
+      <c r="B374">
+        <v>670</v>
+      </c>
+      <c r="C374" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A375">
+        <v>342</v>
+      </c>
+      <c r="B375">
+        <v>670</v>
+      </c>
+      <c r="C375" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A376">
+        <v>342</v>
+      </c>
+      <c r="B376">
+        <v>670</v>
+      </c>
+      <c r="C376" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A377">
+        <v>343</v>
+      </c>
+      <c r="B377">
+        <v>674</v>
+      </c>
+      <c r="C377" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A378">
+        <v>343</v>
+      </c>
+      <c r="B378">
+        <v>674</v>
+      </c>
+      <c r="C378" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A379">
+        <v>343</v>
+      </c>
+      <c r="B379">
+        <v>674</v>
+      </c>
+      <c r="C379" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A380">
+        <v>344</v>
+      </c>
+      <c r="B380">
+        <v>677</v>
+      </c>
+      <c r="C380" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A381">
+        <v>344</v>
+      </c>
+      <c r="B381">
+        <v>677</v>
+      </c>
+      <c r="C381" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A382">
+        <v>344</v>
+      </c>
+      <c r="B382">
+        <v>677</v>
+      </c>
+      <c r="C382" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A383">
+        <v>345</v>
+      </c>
+      <c r="B383">
+        <v>665</v>
+      </c>
+      <c r="C383" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A384">
+        <v>345</v>
+      </c>
+      <c r="B384">
+        <v>665</v>
+      </c>
+      <c r="C384" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A385">
+        <v>345</v>
+      </c>
+      <c r="B385">
+        <v>665</v>
+      </c>
+      <c r="C385" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A386">
+        <v>345</v>
+      </c>
+      <c r="B386">
+        <v>665</v>
+      </c>
+      <c r="C386" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A387">
+        <v>345</v>
+      </c>
+      <c r="B387">
+        <v>665</v>
+      </c>
+      <c r="C387" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A388">
+        <v>346</v>
+      </c>
+      <c r="B388">
+        <v>670</v>
+      </c>
+      <c r="C388" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A389">
+        <v>346</v>
+      </c>
+      <c r="B389">
+        <v>670</v>
+      </c>
+      <c r="C389" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A390">
+        <v>346</v>
+      </c>
+      <c r="B390">
+        <v>670</v>
+      </c>
+      <c r="C390" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A391">
+        <v>346</v>
+      </c>
+      <c r="B391">
+        <v>670</v>
+      </c>
+      <c r="C391" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A392">
+        <v>347</v>
+      </c>
+      <c r="B392">
+        <v>674</v>
+      </c>
+      <c r="C392" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A393">
+        <v>347</v>
+      </c>
+      <c r="B393">
+        <v>674</v>
+      </c>
+      <c r="C393" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A394">
+        <v>347</v>
+      </c>
+      <c r="B394">
+        <v>674</v>
+      </c>
+      <c r="C394" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A395">
+        <v>348</v>
+      </c>
+      <c r="B395">
+        <v>677</v>
+      </c>
+      <c r="C395" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A396">
+        <v>348</v>
+      </c>
+      <c r="B396">
+        <v>677</v>
+      </c>
+      <c r="C396" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A397">
+        <v>348</v>
+      </c>
+      <c r="B397">
+        <v>677</v>
+      </c>
+      <c r="C397" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A398">
+        <v>349</v>
+      </c>
+      <c r="B398">
+        <v>666</v>
+      </c>
+      <c r="C398" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A399">
+        <v>349</v>
+      </c>
+      <c r="B399">
+        <v>666</v>
+      </c>
+      <c r="C399" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A400">
+        <v>349</v>
+      </c>
+      <c r="B400">
+        <v>666</v>
+      </c>
+      <c r="C400" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A401">
+        <v>349</v>
+      </c>
+      <c r="B401">
+        <v>666</v>
+      </c>
+      <c r="C401" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A402">
+        <v>350</v>
+      </c>
+      <c r="B402">
+        <v>682</v>
+      </c>
+      <c r="C402" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A403">
+        <v>350</v>
+      </c>
+      <c r="B403">
+        <v>682</v>
+      </c>
+      <c r="C403" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A404">
+        <v>350</v>
+      </c>
+      <c r="B404">
+        <v>682</v>
+      </c>
+      <c r="C404" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A405">
+        <v>350</v>
+      </c>
+      <c r="B405">
+        <v>682</v>
+      </c>
+      <c r="C405" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A406">
+        <v>350</v>
+      </c>
+      <c r="B406">
+        <v>682</v>
+      </c>
+      <c r="C406" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A407">
+        <v>351</v>
+      </c>
+      <c r="B407">
+        <v>683</v>
+      </c>
+      <c r="C407" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A408">
+        <v>351</v>
+      </c>
+      <c r="B408">
+        <v>683</v>
+      </c>
+      <c r="C408" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A409">
+        <v>351</v>
+      </c>
+      <c r="B409">
+        <v>683</v>
+      </c>
+      <c r="C409" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A410">
+        <v>351</v>
+      </c>
+      <c r="B410">
+        <v>683</v>
+      </c>
+      <c r="C410" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A411">
+        <v>352</v>
+      </c>
+      <c r="B411">
+        <v>674</v>
+      </c>
+      <c r="C411" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A412">
+        <v>352</v>
+      </c>
+      <c r="B412">
+        <v>674</v>
+      </c>
+      <c r="C412" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A413">
+        <v>352</v>
+      </c>
+      <c r="B413">
+        <v>674</v>
+      </c>
+      <c r="C413" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A414">
+        <v>353</v>
+      </c>
+      <c r="B414">
+        <v>677</v>
+      </c>
+      <c r="C414" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A415">
+        <v>353</v>
+      </c>
+      <c r="B415">
+        <v>677</v>
+      </c>
+      <c r="C415" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A416">
+        <v>353</v>
+      </c>
+      <c r="B416">
+        <v>677</v>
+      </c>
+      <c r="C416" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A417">
+        <v>354</v>
+      </c>
+      <c r="B417">
+        <v>666</v>
+      </c>
+      <c r="C417" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A418">
+        <v>354</v>
+      </c>
+      <c r="B418">
+        <v>666</v>
+      </c>
+      <c r="C418" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A419">
+        <v>354</v>
+      </c>
+      <c r="B419">
+        <v>666</v>
+      </c>
+      <c r="C419" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A420">
+        <v>354</v>
+      </c>
+      <c r="B420">
+        <v>666</v>
+      </c>
+      <c r="C420" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A421">
+        <v>355</v>
+      </c>
+      <c r="B421">
+        <v>682</v>
+      </c>
+      <c r="C421" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A422">
+        <v>355</v>
+      </c>
+      <c r="B422">
+        <v>682</v>
+      </c>
+      <c r="C422" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A423">
+        <v>355</v>
+      </c>
+      <c r="B423">
+        <v>682</v>
+      </c>
+      <c r="C423" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A424">
+        <v>355</v>
+      </c>
+      <c r="B424">
+        <v>682</v>
+      </c>
+      <c r="C424" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A425">
+        <v>355</v>
+      </c>
+      <c r="B425">
+        <v>682</v>
+      </c>
+      <c r="C425" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A426">
+        <v>356</v>
+      </c>
+      <c r="B426">
+        <v>683</v>
+      </c>
+      <c r="C426" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A427">
+        <v>356</v>
+      </c>
+      <c r="B427">
+        <v>683</v>
+      </c>
+      <c r="C427" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A428">
+        <v>356</v>
+      </c>
+      <c r="B428">
+        <v>683</v>
+      </c>
+      <c r="C428" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A429">
+        <v>356</v>
+      </c>
+      <c r="B429">
+        <v>683</v>
+      </c>
+      <c r="C429" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A430">
+        <v>357</v>
+      </c>
+      <c r="B430">
+        <v>674</v>
+      </c>
+      <c r="C430" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A431">
+        <v>357</v>
+      </c>
+      <c r="B431">
+        <v>674</v>
+      </c>
+      <c r="C431" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A432">
+        <v>357</v>
+      </c>
+      <c r="B432">
+        <v>674</v>
+      </c>
+      <c r="C432" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A433">
+        <v>358</v>
+      </c>
+      <c r="B433">
+        <v>677</v>
+      </c>
+      <c r="C433" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A434">
+        <v>358</v>
+      </c>
+      <c r="B434">
+        <v>677</v>
+      </c>
+      <c r="C434" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A435">
+        <v>358</v>
+      </c>
+      <c r="B435">
+        <v>677</v>
+      </c>
+      <c r="C435" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A436">
+        <v>359</v>
+      </c>
+      <c r="B436">
+        <v>684</v>
+      </c>
+      <c r="C436" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A437">
+        <v>359</v>
+      </c>
+      <c r="B437">
+        <v>684</v>
+      </c>
+      <c r="C437" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A438">
+        <v>359</v>
+      </c>
+      <c r="B438">
+        <v>684</v>
+      </c>
+      <c r="C438" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A439">
+        <v>360</v>
+      </c>
+      <c r="B439">
+        <v>686</v>
+      </c>
+      <c r="C439" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A440">
+        <v>360</v>
+      </c>
+      <c r="B440">
+        <v>686</v>
+      </c>
+      <c r="C440" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A441">
+        <v>360</v>
+      </c>
+      <c r="B441">
+        <v>686</v>
+      </c>
+      <c r="C441" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A442">
+        <v>361</v>
+      </c>
+      <c r="B442">
+        <v>689</v>
+      </c>
+      <c r="C442" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A443">
+        <v>361</v>
+      </c>
+      <c r="B443">
+        <v>689</v>
+      </c>
+      <c r="C443" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A444">
+        <v>361</v>
+      </c>
+      <c r="B444">
+        <v>689</v>
+      </c>
+      <c r="C444" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A445">
+        <v>362</v>
+      </c>
+      <c r="B445">
+        <v>692</v>
+      </c>
+      <c r="C445" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A446">
+        <v>362</v>
+      </c>
+      <c r="B446">
+        <v>692</v>
+      </c>
+      <c r="C446" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A447">
+        <v>362</v>
+      </c>
+      <c r="B447">
+        <v>692</v>
+      </c>
+      <c r="C447" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A448">
+        <v>362</v>
+      </c>
+      <c r="B448">
+        <v>692</v>
+      </c>
+      <c r="C448" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A449">
+        <v>363</v>
+      </c>
+      <c r="B449">
+        <v>693</v>
+      </c>
+      <c r="C449" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A450">
+        <v>363</v>
+      </c>
+      <c r="B450">
+        <v>693</v>
+      </c>
+      <c r="C450" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A451">
+        <v>363</v>
+      </c>
+      <c r="B451">
+        <v>693</v>
+      </c>
+      <c r="C451" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A452">
+        <v>364</v>
+      </c>
+      <c r="B452">
+        <v>696</v>
+      </c>
+      <c r="C452" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A453">
+        <v>364</v>
+      </c>
+      <c r="B453">
+        <v>696</v>
+      </c>
+      <c r="C453" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A454">
+        <v>364</v>
+      </c>
+      <c r="B454">
+        <v>696</v>
+      </c>
+      <c r="C454" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A455">
+        <v>365</v>
+      </c>
+      <c r="B455">
+        <v>699</v>
+      </c>
+      <c r="C455" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A456">
+        <v>365</v>
+      </c>
+      <c r="B456">
+        <v>699</v>
+      </c>
+      <c r="C456" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A457">
+        <v>365</v>
+      </c>
+      <c r="B457">
+        <v>699</v>
+      </c>
+      <c r="C457" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A458">
+        <v>366</v>
+      </c>
+      <c r="B458">
+        <v>701</v>
+      </c>
+      <c r="C458" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A459">
+        <v>366</v>
+      </c>
+      <c r="B459">
+        <v>701</v>
+      </c>
+      <c r="C459" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A460">
+        <v>366</v>
+      </c>
+      <c r="B460">
+        <v>701</v>
+      </c>
+      <c r="C460" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A461">
+        <v>367</v>
+      </c>
+      <c r="B461">
+        <v>704</v>
+      </c>
+      <c r="C461" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A462">
+        <v>367</v>
+      </c>
+      <c r="B462">
+        <v>704</v>
+      </c>
+      <c r="C462" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A463">
+        <v>367</v>
+      </c>
+      <c r="B463">
+        <v>704</v>
+      </c>
+      <c r="C463" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A464">
+        <v>368</v>
+      </c>
+      <c r="B464">
+        <v>707</v>
+      </c>
+      <c r="C464" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A465">
+        <v>368</v>
+      </c>
+      <c r="B465">
+        <v>707</v>
+      </c>
+      <c r="C465" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A466">
+        <v>368</v>
+      </c>
+      <c r="B466">
+        <v>707</v>
+      </c>
+      <c r="C466" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A467">
+        <v>369</v>
+      </c>
+      <c r="B467">
+        <v>693</v>
+      </c>
+      <c r="C467" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A468">
+        <v>369</v>
+      </c>
+      <c r="B468">
+        <v>693</v>
+      </c>
+      <c r="C468" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A469">
+        <v>370</v>
+      </c>
+      <c r="B469">
+        <v>709</v>
+      </c>
+      <c r="C469" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A470">
+        <v>370</v>
+      </c>
+      <c r="B470">
+        <v>709</v>
+      </c>
+      <c r="C470" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A471">
+        <v>370</v>
+      </c>
+      <c r="B471">
+        <v>709</v>
+      </c>
+      <c r="C471" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A472">
+        <v>370</v>
+      </c>
+      <c r="B472">
+        <v>709</v>
+      </c>
+      <c r="C472" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A473">
+        <v>370</v>
+      </c>
+      <c r="B473">
+        <v>709</v>
+      </c>
+      <c r="C473" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A474">
+        <v>371</v>
+      </c>
+      <c r="B474">
+        <v>711</v>
+      </c>
+      <c r="C474" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A475">
+        <v>371</v>
+      </c>
+      <c r="B475">
+        <v>711</v>
+      </c>
+      <c r="C475" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A476">
+        <v>371</v>
+      </c>
+      <c r="B476">
+        <v>711</v>
+      </c>
+      <c r="C476" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A477">
+        <v>372</v>
+      </c>
+      <c r="B477">
+        <v>714</v>
+      </c>
+      <c r="C477" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A478">
+        <v>372</v>
+      </c>
+      <c r="B478">
+        <v>714</v>
+      </c>
+      <c r="C478" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A479">
+        <v>372</v>
+      </c>
+      <c r="B479">
+        <v>714</v>
+      </c>
+      <c r="C479" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A480">
+        <v>373</v>
+      </c>
+      <c r="B480">
+        <v>693</v>
+      </c>
+      <c r="C480" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A481">
+        <v>373</v>
+      </c>
+      <c r="B481">
+        <v>693</v>
+      </c>
+      <c r="C481" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A482">
+        <v>373</v>
+      </c>
+      <c r="B482">
+        <v>693</v>
+      </c>
+      <c r="C482" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A483">
+        <v>373</v>
+      </c>
+      <c r="B483">
+        <v>693</v>
+      </c>
+      <c r="C483" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A484">
+        <v>373</v>
+      </c>
+      <c r="B484">
+        <v>693</v>
+      </c>
+      <c r="C484" t="s">
+        <v>312</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
